--- a/medicine/Nettoyage et hygiène/Oral-B/Oral-B.xlsx
+++ b/medicine/Nettoyage et hygiène/Oral-B/Oral-B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oral-B est une marque de brosse à dents et autres produits d’hygiène bucco-dentaire commercialisée par l’entreprise Gillette de 1984 à 2005. Braun, également membre du groupe Gillette à cette époque, a commencé à utiliser la marque Oral-B pour les brosses à dents électriques. Oral-B fait partie de la société Procter &amp; Gamble depuis 2006. Un représentant de la société a déclaré que le « B » dans Oral-B signifie « brosse ».[réf. nécessaire]
 La marque a été créée dans les années 1960 par l'entreprise du Docteur Robert W. Hutson, dépositaire californien d'un brevet déposé le 13 janvier 1950 en France.
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail du commerce   Nettoyage et hygiène                    </t>
